--- a/机器猫文件目录对应.xlsx
+++ b/机器猫文件目录对应.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21795" windowHeight="11595"/>
+    <workbookView windowWidth="21810" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504">
   <si>
     <t>前台：</t>
   </si>
@@ -952,6 +952,582 @@
   </si>
   <si>
     <t>/financial/transaction.html</t>
+  </si>
+  <si>
+    <t>企业用户后台:</t>
+  </si>
+  <si>
+    <t>财务部-绑定银行卡列表</t>
+  </si>
+  <si>
+    <t>/company/financial/cardList.html</t>
+  </si>
+  <si>
+    <t>财务部-充值</t>
+  </si>
+  <si>
+    <t>/company/financial/recharge.html</t>
+  </si>
+  <si>
+    <t>财务部-付款申请</t>
+  </si>
+  <si>
+    <t>/company/financial/payment.html</t>
+  </si>
+  <si>
+    <t>财务部-合同管理</t>
+  </si>
+  <si>
+    <t>/company/financial/contract.html</t>
+  </si>
+  <si>
+    <t>财务部-收支明细</t>
+  </si>
+  <si>
+    <t>/company/financial/budget.html</t>
+  </si>
+  <si>
+    <t>财务部-提现</t>
+  </si>
+  <si>
+    <t>/company/financial/withdraw.html</t>
+  </si>
+  <si>
+    <t>财务部-项目统计</t>
+  </si>
+  <si>
+    <t>/company/financial/census.html</t>
+  </si>
+  <si>
+    <t>财务部-银行卡绑定</t>
+  </si>
+  <si>
+    <t>/company/financial/bind.html</t>
+  </si>
+  <si>
+    <t>财务部-账户总览</t>
+  </si>
+  <si>
+    <t>/company/financial/overview.html</t>
+  </si>
+  <si>
+    <t>财务部-转账</t>
+  </si>
+  <si>
+    <t>/company/financial/transaction.html</t>
+  </si>
+  <si>
+    <t>/company/order/orderManage.html</t>
+  </si>
+  <si>
+    <t>/company/order/orderSell.html</t>
+  </si>
+  <si>
+    <t>买到的-订单详情</t>
+  </si>
+  <si>
+    <t>/company/order/orderDetails.html</t>
+  </si>
+  <si>
+    <t>/company/order/sellDetails.html</t>
+  </si>
+  <si>
+    <t>卖出的-订单详情-收货信息</t>
+  </si>
+  <si>
+    <t>/company/order/address.html</t>
+  </si>
+  <si>
+    <t>快捷需求发布-单个快捷需求详情</t>
+  </si>
+  <si>
+    <t>/company/need/serviceApply.html</t>
+  </si>
+  <si>
+    <t>快捷需求发布-快捷需求发布</t>
+  </si>
+  <si>
+    <t>/company/need/needPublish.html</t>
+  </si>
+  <si>
+    <t>快捷需求发布-快捷需求列表管理</t>
+  </si>
+  <si>
+    <t>/company/need/demandManage.html</t>
+  </si>
+  <si>
+    <t>快捷需求发布-快捷需求申请列表</t>
+  </si>
+  <si>
+    <t>/company/need/apply.html</t>
+  </si>
+  <si>
+    <t>评价管理-评价管理</t>
+  </si>
+  <si>
+    <t>/company/evaluate/evaluate.html</t>
+  </si>
+  <si>
+    <t>企业信息-店铺设置-案例</t>
+  </si>
+  <si>
+    <t>/company/info/shopSet/case.html</t>
+  </si>
+  <si>
+    <t>企业信息-店铺设置-店铺设置</t>
+  </si>
+  <si>
+    <t>/company/info/shopSet/website.html</t>
+  </si>
+  <si>
+    <t>企业信息-店铺设置-分类</t>
+  </si>
+  <si>
+    <t>/company/info/shopSet/classify.html</t>
+  </si>
+  <si>
+    <t>企业信息-店铺设置-企业服务设置</t>
+  </si>
+  <si>
+    <t>/company/info/shopSet/serviceSet.html</t>
+  </si>
+  <si>
+    <t>企业信息-店铺设置-企业介绍</t>
+  </si>
+  <si>
+    <t>/company/info/shopSet/introduce.html</t>
+  </si>
+  <si>
+    <t>企业信息-店铺设置-添加</t>
+  </si>
+  <si>
+    <t>/company/info/shopSet/append.html</t>
+  </si>
+  <si>
+    <t>企业信息-店铺设置-增加</t>
+  </si>
+  <si>
+    <t>/company/info/shopSet/addCase.html</t>
+  </si>
+  <si>
+    <t>企业信息-店铺设置-自由页管理</t>
+  </si>
+  <si>
+    <t>/company/info/shopSet/free.html</t>
+  </si>
+  <si>
+    <t>企业信息-我的商品-产品发布</t>
+  </si>
+  <si>
+    <t>/company/info/ware/productRelease.html</t>
+  </si>
+  <si>
+    <t>企业信息-我的商品-发布商品选择类型</t>
+  </si>
+  <si>
+    <t>/company/info/ware/publishType.html</t>
+  </si>
+  <si>
+    <t>企业信息-我的商品-技术服务发布</t>
+  </si>
+  <si>
+    <t>/company/info/ware/productRelease1.html</t>
+  </si>
+  <si>
+    <t>企业信息-我的商品-商品分类</t>
+  </si>
+  <si>
+    <t>/company/info/ware/resourceClassify.html</t>
+  </si>
+  <si>
+    <t>企业信息-我的商品-商品列表管理</t>
+  </si>
+  <si>
+    <t>/company/info/ware/commodityList.html</t>
+  </si>
+  <si>
+    <t>企业信息-我的商品-资源服务发布</t>
+  </si>
+  <si>
+    <t>/company/info/ware/productRelease2.html</t>
+  </si>
+  <si>
+    <t>企业信息-地址管理</t>
+  </si>
+  <si>
+    <t>/company/info/address.html</t>
+  </si>
+  <si>
+    <t>企业信息-地址管理-新增地址</t>
+  </si>
+  <si>
+    <t>企业信息-水印管理</t>
+  </si>
+  <si>
+    <t>/company/info/watermark.html</t>
+  </si>
+  <si>
+    <t>企业信息-账户权益</t>
+  </si>
+  <si>
+    <t>/company/info/rights.html</t>
+  </si>
+  <si>
+    <t>企业子账户管理-子账户管理</t>
+  </si>
+  <si>
+    <t>/company/account/index.html</t>
+  </si>
+  <si>
+    <t>企业子账户管理-子账户管理-新增子账号</t>
+  </si>
+  <si>
+    <t>企业子账户管理-总览</t>
+  </si>
+  <si>
+    <t>/company/account/overview.html</t>
+  </si>
+  <si>
+    <t>人事部-发布招聘</t>
+  </si>
+  <si>
+    <t>/company/ministryPersonnel/postVacanci.html</t>
+  </si>
+  <si>
+    <t>人事部-应聘动态管理</t>
+  </si>
+  <si>
+    <t>/company/ministryPersonnel/applyDynamic.html</t>
+  </si>
+  <si>
+    <t>人事部-招聘信息管理</t>
+  </si>
+  <si>
+    <t>/company/ministryPersonnel/recruitedManager.html</t>
+  </si>
+  <si>
+    <t>文件柜-文件柜</t>
+  </si>
+  <si>
+    <t>/company/fileCabinet/fileCabinet.html</t>
+  </si>
+  <si>
+    <t>文件柜-文件柜-弹窗</t>
+  </si>
+  <si>
+    <t>我的收藏-收藏夹</t>
+  </si>
+  <si>
+    <t>/company/myCollection/collection.html</t>
+  </si>
+  <si>
+    <t>项目部-我承接的项目-收到的项目评估协助邀请</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/undertakingProject/getInvite.html</t>
+  </si>
+  <si>
+    <t>项目部-我承接的项目-项目管理首页</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/undertakingProject/indexProject.html</t>
+  </si>
+  <si>
+    <t>项目部-我承接的项目-项目详情</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/undertakingProject/projectDetails.html</t>
+  </si>
+  <si>
+    <t>项目部-我承接的项目-项目详情-BUG反馈</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/undertakingProject/bugBack.html</t>
+  </si>
+  <si>
+    <t>项目部-我承接的项目-项目详情-沟通记录</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/undertakingProject/record.html</t>
+  </si>
+  <si>
+    <t>项目部-我承接的项目-项目详情-合同</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/undertakingProject/contrac.html</t>
+  </si>
+  <si>
+    <t>项目部-我承接的项目-项目详情-往来MEMO</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/undertakingProject/contactMemo.html</t>
+  </si>
+  <si>
+    <t>项目部-我承接的项目-项目详情-往来文件</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/undertakingProject/contactFile.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-发布项目需求书-发布项目需求书</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/demandBook/basicDemand.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-发布项目需求书-需求详情</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/demandBook/demandDetails.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-发布项目需求书-资金模式</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/demandBook/fundMode.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-收到的评估书列表-评估书对比</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/getBookList/contrastBook.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-收到的评估书列表-评估书详情</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/getBookList/applicationBook.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-收到的评估书列表-企业信息对比</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/getBookList/contrastCompany.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-收到的评估书列表-收到的评估书列表</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/getBookList/projectBook.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-收到的评估书列表-对比评估书</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/getBookList/contrastBookCompany.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-收到的评估书列表-对比企业</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-项目树管理-单个项目树详情</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/projectTree/projectDetails.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-项目树管理-单个项目树详情管理</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/projectTree/singleTree.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-项目树管理-单个项目树详情管理-BUG反馈</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/projectTree/bugBack.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-项目树管理-单个项目树详情管理-付款</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/projectTree/payment.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-项目树管理-单个项目树详情管理-沟通记录</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/projectTree/record.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-项目树管理-单个项目树详情管理-合同</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/projectTree/contrac.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-项目树管理-单个项目树详情管理-往来MEMO</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/projectTree/contactMemo.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-项目树管理-单个项目树详情管理-往来文件</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/projectTree/contactFile.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-项目树管理-项目树管理</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/projectTree/projectCount.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-项目需求管理-发送私密邀请</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/needManage/sendtInvite.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-项目需求管理-项目管理-待发布项目需求</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/needManage/readySend.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-项目需求管理-项目管理-合作中的项目</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/needManage/workBid.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-项目需求管理-项目管理-历史项目</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/needManage/historyBid.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-项目需求管理-项目管理-已发布项目需求</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/needManage/compledBid.html</t>
+  </si>
+  <si>
+    <t>项目部-我外包的项目-创建说明</t>
+  </si>
+  <si>
+    <t>/company/projectDepartment/outsourcingProjec/setExplain.html</t>
+  </si>
+  <si>
+    <t>业务部-合同管理</t>
+  </si>
+  <si>
+    <t>/company/businessDepartment/contracManage.html</t>
+  </si>
+  <si>
+    <t>业务部-评估书列表管理</t>
+  </si>
+  <si>
+    <t>/company/businessDepartment/bookManage.html</t>
+  </si>
+  <si>
+    <t>业务部-收到的项目邀请</t>
+  </si>
+  <si>
+    <t>/company/businessDepartment/projectInvite.html</t>
+  </si>
+  <si>
+    <t>业务部-项目管理-合作中的项目</t>
+  </si>
+  <si>
+    <t>/company/businessDepartment/workBid.html</t>
+  </si>
+  <si>
+    <t>业务部-项目管理-竞标中的项目</t>
+  </si>
+  <si>
+    <t>/company/businessDepartment/readySend.html</t>
+  </si>
+  <si>
+    <t>业务部-项目管理-历史项目</t>
+  </si>
+  <si>
+    <t>/company/businessDepartment/historyBid.html</t>
+  </si>
+  <si>
+    <t>业务部-项目管理-已中标项目</t>
+  </si>
+  <si>
+    <t>/company/businessDepartment/compledBid.html</t>
+  </si>
+  <si>
+    <t>业务部-项目详情</t>
+  </si>
+  <si>
+    <t>/company/businessDepartment/projectDetails.html</t>
+  </si>
+  <si>
+    <t>业务部-项目详情-BUG反馈</t>
+  </si>
+  <si>
+    <t>/company/businessDepartment/bugBack.html</t>
+  </si>
+  <si>
+    <t>业务部-项目详情-付款</t>
+  </si>
+  <si>
+    <t>/company/businessDepartment/payment.html</t>
+  </si>
+  <si>
+    <t>业务部-项目详情-沟通记录</t>
+  </si>
+  <si>
+    <t>/company/businessDepartment/record.html</t>
+  </si>
+  <si>
+    <t>业务部-项目详情-合同</t>
+  </si>
+  <si>
+    <t>/company/businessDepartment/contrac.html</t>
+  </si>
+  <si>
+    <t>业务部-项目详情-往来MEMO</t>
+  </si>
+  <si>
+    <t>/company/businessDepartment/contactMemo.html</t>
+  </si>
+  <si>
+    <t>业务部-项目详情-往来文件</t>
+  </si>
+  <si>
+    <t>/company/businessDepartment/contactFile.html</t>
+  </si>
+  <si>
+    <t>站内信-单个聊天记录</t>
+  </si>
+  <si>
+    <t>/company/letterStation/chatRecord.html</t>
+  </si>
+  <si>
+    <t>站内信-付款信息</t>
+  </si>
+  <si>
+    <t>/company/letterStation/payment.html</t>
+  </si>
+  <si>
+    <t>站内信-交易提醒</t>
+  </si>
+  <si>
+    <t>/company/letterStation/trade.html</t>
+  </si>
+  <si>
+    <t>站内信-聊天记录</t>
+  </si>
+  <si>
+    <t>/company/letterStation/chatList.html</t>
+  </si>
+  <si>
+    <t>站内信-评论</t>
+  </si>
+  <si>
+    <t>/company/letterStation/comment.html</t>
+  </si>
+  <si>
+    <t>站内信-项目邀请</t>
+  </si>
+  <si>
+    <t>/company/letterStation/invite.html</t>
   </si>
 </sst>
 </file>
@@ -959,27 +1535,364 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -987,24 +1900,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,13 +2153,56 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1070,71 +2253,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1353,18 +2536,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A6:D176"/>
+  <dimension ref="A6:D278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="44.375" customWidth="1"/>
-    <col min="4" max="4" width="48.375" customWidth="1"/>
+    <col min="3" max="3" width="59.875" customWidth="1"/>
+    <col min="4" max="4" width="81.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:1">
@@ -2637,6 +3820,817 @@
       </c>
       <c r="D176" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4">
+      <c r="B178" t="s">
+        <v>312</v>
+      </c>
+      <c r="C178" t="s">
+        <v>313</v>
+      </c>
+      <c r="D178" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4">
+      <c r="C179" t="s">
+        <v>315</v>
+      </c>
+      <c r="D179" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4">
+      <c r="C180" t="s">
+        <v>317</v>
+      </c>
+      <c r="D180" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4">
+      <c r="C181" t="s">
+        <v>319</v>
+      </c>
+      <c r="D181" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4">
+      <c r="C182" t="s">
+        <v>321</v>
+      </c>
+      <c r="D182" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4">
+      <c r="C183" t="s">
+        <v>323</v>
+      </c>
+      <c r="D183" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4">
+      <c r="C184" t="s">
+        <v>325</v>
+      </c>
+      <c r="D184" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4">
+      <c r="C185" t="s">
+        <v>327</v>
+      </c>
+      <c r="D185" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="186" spans="3:4">
+      <c r="C186" t="s">
+        <v>329</v>
+      </c>
+      <c r="D186" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4">
+      <c r="C187" t="s">
+        <v>331</v>
+      </c>
+      <c r="D187" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="188" spans="3:4">
+      <c r="C188" t="s">
+        <v>202</v>
+      </c>
+      <c r="D188" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="189" spans="3:4">
+      <c r="C189" t="s">
+        <v>204</v>
+      </c>
+      <c r="D189" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="190" spans="3:4">
+      <c r="C190" t="s">
+        <v>160</v>
+      </c>
+      <c r="D190" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="191" spans="3:4">
+      <c r="C191" t="s">
+        <v>162</v>
+      </c>
+      <c r="D191" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="192" spans="3:4">
+      <c r="C192" t="s">
+        <v>335</v>
+      </c>
+      <c r="D192" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4">
+      <c r="C193" t="s">
+        <v>163</v>
+      </c>
+      <c r="D193" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4">
+      <c r="C194" t="s">
+        <v>338</v>
+      </c>
+      <c r="D194" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4">
+      <c r="C195" t="s">
+        <v>340</v>
+      </c>
+      <c r="D195" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4">
+      <c r="C196" t="s">
+        <v>342</v>
+      </c>
+      <c r="D196" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4">
+      <c r="C197" t="s">
+        <v>344</v>
+      </c>
+      <c r="D197" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="198" spans="3:4">
+      <c r="C198" t="s">
+        <v>346</v>
+      </c>
+      <c r="D198" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4">
+      <c r="C199" t="s">
+        <v>348</v>
+      </c>
+      <c r="D199" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="200" spans="3:4">
+      <c r="C200" t="s">
+        <v>350</v>
+      </c>
+      <c r="D200" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="201" spans="3:4">
+      <c r="C201" t="s">
+        <v>352</v>
+      </c>
+      <c r="D201" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="202" spans="3:4">
+      <c r="C202" t="s">
+        <v>354</v>
+      </c>
+      <c r="D202" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="203" spans="3:4">
+      <c r="C203" t="s">
+        <v>356</v>
+      </c>
+      <c r="D203" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="204" spans="3:4">
+      <c r="C204" t="s">
+        <v>358</v>
+      </c>
+      <c r="D204" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="205" spans="3:4">
+      <c r="C205" t="s">
+        <v>360</v>
+      </c>
+      <c r="D205" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="206" spans="3:4">
+      <c r="C206" t="s">
+        <v>362</v>
+      </c>
+      <c r="D206" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="207" spans="3:4">
+      <c r="C207" t="s">
+        <v>364</v>
+      </c>
+      <c r="D207" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="208" spans="3:4">
+      <c r="C208" t="s">
+        <v>366</v>
+      </c>
+      <c r="D208" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="209" spans="3:4">
+      <c r="C209" t="s">
+        <v>368</v>
+      </c>
+      <c r="D209" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="210" spans="3:4">
+      <c r="C210" t="s">
+        <v>370</v>
+      </c>
+      <c r="D210" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="211" spans="3:4">
+      <c r="C211" t="s">
+        <v>372</v>
+      </c>
+      <c r="D211" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="212" spans="3:4">
+      <c r="C212" t="s">
+        <v>374</v>
+      </c>
+      <c r="D212" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="213" spans="3:4">
+      <c r="C213" t="s">
+        <v>376</v>
+      </c>
+      <c r="D213" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="214" spans="3:4">
+      <c r="C214" t="s">
+        <v>378</v>
+      </c>
+      <c r="D214" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="215" spans="3:4">
+      <c r="C215" t="s">
+        <v>380</v>
+      </c>
+      <c r="D215" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="216" spans="3:4">
+      <c r="C216" t="s">
+        <v>381</v>
+      </c>
+      <c r="D216" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="217" spans="3:4">
+      <c r="C217" t="s">
+        <v>383</v>
+      </c>
+      <c r="D217" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="218" spans="3:4">
+      <c r="C218" t="s">
+        <v>385</v>
+      </c>
+      <c r="D218" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="219" spans="3:4">
+      <c r="C219" t="s">
+        <v>387</v>
+      </c>
+      <c r="D219" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="220" spans="3:4">
+      <c r="C220" t="s">
+        <v>388</v>
+      </c>
+      <c r="D220" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="221" spans="3:4">
+      <c r="C221" t="s">
+        <v>390</v>
+      </c>
+      <c r="D221" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="222" spans="3:4">
+      <c r="C222" t="s">
+        <v>392</v>
+      </c>
+      <c r="D222" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="223" spans="3:4">
+      <c r="C223" t="s">
+        <v>394</v>
+      </c>
+      <c r="D223" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="224" spans="3:4">
+      <c r="C224" t="s">
+        <v>396</v>
+      </c>
+      <c r="D224" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="225" spans="3:4">
+      <c r="C225" t="s">
+        <v>398</v>
+      </c>
+      <c r="D225" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="226" spans="3:4">
+      <c r="C226" t="s">
+        <v>399</v>
+      </c>
+      <c r="D226" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="227" spans="3:4">
+      <c r="C227" t="s">
+        <v>401</v>
+      </c>
+      <c r="D227" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="228" spans="3:4">
+      <c r="C228" t="s">
+        <v>403</v>
+      </c>
+      <c r="D228" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="229" spans="3:4">
+      <c r="C229" t="s">
+        <v>405</v>
+      </c>
+      <c r="D229" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="230" spans="3:4">
+      <c r="C230" t="s">
+        <v>407</v>
+      </c>
+      <c r="D230" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="231" spans="3:4">
+      <c r="C231" t="s">
+        <v>409</v>
+      </c>
+      <c r="D231" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="232" spans="3:4">
+      <c r="C232" t="s">
+        <v>411</v>
+      </c>
+      <c r="D232" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="233" spans="3:4">
+      <c r="C233" t="s">
+        <v>413</v>
+      </c>
+      <c r="D233" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="234" spans="3:4">
+      <c r="C234" t="s">
+        <v>415</v>
+      </c>
+      <c r="D234" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="235" spans="3:4">
+      <c r="C235" t="s">
+        <v>417</v>
+      </c>
+      <c r="D235" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="236" spans="3:4">
+      <c r="C236" t="s">
+        <v>419</v>
+      </c>
+      <c r="D236" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="237" spans="3:4">
+      <c r="C237" t="s">
+        <v>421</v>
+      </c>
+      <c r="D237" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="238" spans="3:4">
+      <c r="C238" t="s">
+        <v>423</v>
+      </c>
+      <c r="D238" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="239" spans="3:4">
+      <c r="C239" t="s">
+        <v>425</v>
+      </c>
+      <c r="D239" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="240" spans="3:4">
+      <c r="C240" t="s">
+        <v>427</v>
+      </c>
+      <c r="D240" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="241" spans="3:4">
+      <c r="C241" t="s">
+        <v>429</v>
+      </c>
+      <c r="D241" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="242" spans="3:4">
+      <c r="C242" t="s">
+        <v>431</v>
+      </c>
+      <c r="D242" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="243" spans="3:4">
+      <c r="C243" t="s">
+        <v>433</v>
+      </c>
+      <c r="D243" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="244" spans="3:4">
+      <c r="C244" t="s">
+        <v>434</v>
+      </c>
+      <c r="D244" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="245" spans="3:4">
+      <c r="C245" t="s">
+        <v>436</v>
+      </c>
+      <c r="D245" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="246" spans="3:4">
+      <c r="C246" t="s">
+        <v>438</v>
+      </c>
+      <c r="D246" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="247" spans="3:4">
+      <c r="C247" t="s">
+        <v>440</v>
+      </c>
+      <c r="D247" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="248" spans="3:4">
+      <c r="C248" t="s">
+        <v>442</v>
+      </c>
+      <c r="D248" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="249" spans="3:4">
+      <c r="C249" t="s">
+        <v>444</v>
+      </c>
+      <c r="D249" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="250" spans="3:4">
+      <c r="C250" t="s">
+        <v>446</v>
+      </c>
+      <c r="D250" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="251" spans="3:4">
+      <c r="C251" t="s">
+        <v>448</v>
+      </c>
+      <c r="D251" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="252" spans="3:4">
+      <c r="C252" t="s">
+        <v>450</v>
+      </c>
+      <c r="D252" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="253" spans="3:4">
+      <c r="C253" t="s">
+        <v>452</v>
+      </c>
+      <c r="D253" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="254" spans="3:4">
+      <c r="C254" t="s">
+        <v>454</v>
+      </c>
+      <c r="D254" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="255" spans="3:4">
+      <c r="C255" t="s">
+        <v>456</v>
+      </c>
+      <c r="D255" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="256" spans="3:4">
+      <c r="C256" t="s">
+        <v>458</v>
+      </c>
+      <c r="D256" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="257" spans="3:4">
+      <c r="C257" t="s">
+        <v>460</v>
+      </c>
+      <c r="D257" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="258" spans="3:4">
+      <c r="C258" t="s">
+        <v>462</v>
+      </c>
+      <c r="D258" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="259" spans="3:4">
+      <c r="C259" t="s">
+        <v>464</v>
+      </c>
+      <c r="D259" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="260" spans="3:4">
+      <c r="C260" t="s">
+        <v>466</v>
+      </c>
+      <c r="D260" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="261" spans="3:4">
+      <c r="C261" t="s">
+        <v>468</v>
+      </c>
+      <c r="D261" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="262" spans="3:4">
+      <c r="C262" t="s">
+        <v>470</v>
+      </c>
+      <c r="D262" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="263" spans="3:4">
+      <c r="C263" t="s">
+        <v>472</v>
+      </c>
+      <c r="D263" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="264" spans="3:4">
+      <c r="C264" t="s">
+        <v>474</v>
+      </c>
+      <c r="D264" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="265" spans="3:4">
+      <c r="C265" t="s">
+        <v>476</v>
+      </c>
+      <c r="D265" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="266" spans="3:4">
+      <c r="C266" t="s">
+        <v>478</v>
+      </c>
+      <c r="D266" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="267" spans="3:4">
+      <c r="C267" t="s">
+        <v>480</v>
+      </c>
+      <c r="D267" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="268" spans="3:4">
+      <c r="C268" t="s">
+        <v>482</v>
+      </c>
+      <c r="D268" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="269" spans="3:4">
+      <c r="C269" t="s">
+        <v>484</v>
+      </c>
+      <c r="D269" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="270" spans="3:4">
+      <c r="C270" t="s">
+        <v>486</v>
+      </c>
+      <c r="D270" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="271" spans="3:4">
+      <c r="C271" t="s">
+        <v>488</v>
+      </c>
+      <c r="D271" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="272" spans="3:4">
+      <c r="C272" t="s">
+        <v>490</v>
+      </c>
+      <c r="D272" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="273" spans="3:4">
+      <c r="C273" t="s">
+        <v>492</v>
+      </c>
+      <c r="D273" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="274" spans="3:4">
+      <c r="C274" t="s">
+        <v>494</v>
+      </c>
+      <c r="D274" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="275" spans="3:4">
+      <c r="C275" t="s">
+        <v>496</v>
+      </c>
+      <c r="D275" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="276" spans="3:4">
+      <c r="C276" t="s">
+        <v>498</v>
+      </c>
+      <c r="D276" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="277" spans="3:4">
+      <c r="C277" t="s">
+        <v>500</v>
+      </c>
+      <c r="D277" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="278" spans="3:4">
+      <c r="C278" t="s">
+        <v>502</v>
+      </c>
+      <c r="D278" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
